--- a/D5035-01_ATSAME51/D5035-01-08/Project Outputs/D5035-01_BOM_Release.xlsx
+++ b/D5035-01_ATSAME51/D5035-01-08/Project Outputs/D5035-01_BOM_Release.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles" vbProcedure="false">'D5035-01'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'D5035-01'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'D5035-01'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'D5035-01'!$A:$D</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -39,24 +39,21 @@
     <t xml:space="preserve">Footprint</t>
   </si>
   <si>
-    <t xml:space="preserve">JLCPCB Part #</t>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price [EUR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price sum</t>
   </si>
   <si>
     <t xml:space="preserve">Alternative Part</t>
   </si>
   <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price [EUR]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price sum</t>
-  </si>
-  <si>
     <t xml:space="preserve">10n</t>
   </si>
   <si>
@@ -69,10 +66,7 @@
     <t xml:space="preserve">0603 (1608 Metric)</t>
   </si>
   <si>
-    <t xml:space="preserve">C57112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-C0603C103K8R</t>
+    <t xml:space="preserve">710-885012206014</t>
   </si>
   <si>
     <t xml:space="preserve">100n</t>
@@ -84,9 +78,6 @@
     <t xml:space="preserve">C101, C103, C104, C106, C107, C108, C111, C113, C115, C117, C118, C120</t>
   </si>
   <si>
-    <t xml:space="preserve">C14663</t>
-  </si>
-  <si>
     <t xml:space="preserve">603-CC603KRX7R9BB104</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t xml:space="preserve">0805 (2012 Metric)</t>
   </si>
   <si>
-    <t xml:space="preserve">C1779</t>
-  </si>
-  <si>
     <t xml:space="preserve">187-CL21A475KAQNNNG</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t xml:space="preserve">C114, C119</t>
   </si>
   <si>
-    <t xml:space="preserve">C1744</t>
-  </si>
-  <si>
     <t xml:space="preserve">187-CL21B472KDCNNNC</t>
   </si>
   <si>
@@ -135,15 +120,12 @@
     <t xml:space="preserve">SOT23-5</t>
   </si>
   <si>
-    <t xml:space="preserve">not available</t>
+    <t xml:space="preserve">621-D1213A-02SM-7</t>
   </si>
   <si>
     <t xml:space="preserve">WE 824011</t>
   </si>
   <si>
-    <t xml:space="preserve">621-D1213A-02SM-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">PESD1CAN</t>
   </si>
   <si>
@@ -153,15 +135,12 @@
     <t xml:space="preserve">SOT23</t>
   </si>
   <si>
-    <t xml:space="preserve">C343993</t>
+    <t xml:space="preserve">771-PESD1CAN-T/R </t>
   </si>
   <si>
     <t xml:space="preserve">ESDCAN01-2BLY</t>
   </si>
   <si>
-    <t xml:space="preserve">771-PESD1CAN-T/R </t>
-  </si>
-  <si>
     <t xml:space="preserve">green</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t xml:space="preserve">D106, D108, D110</t>
   </si>
   <si>
-    <t xml:space="preserve">C72043</t>
-  </si>
-  <si>
     <t xml:space="preserve">859-LTST-C191TGKT</t>
   </si>
   <si>
@@ -183,9 +159,6 @@
     <t xml:space="preserve">D109, D111</t>
   </si>
   <si>
-    <t xml:space="preserve">C2286</t>
-  </si>
-  <si>
     <t xml:space="preserve">743-S63BTR</t>
   </si>
   <si>
@@ -201,9 +174,6 @@
     <t xml:space="preserve">2,5mm x 2,0mm</t>
   </si>
   <si>
-    <t xml:space="preserve">do not populate</t>
-  </si>
-  <si>
     <t xml:space="preserve">732-2520SMN16MCGNNM0</t>
   </si>
   <si>
@@ -216,12 +186,12 @@
     <t xml:space="preserve">L100</t>
   </si>
   <si>
+    <t xml:space="preserve">710-742792641</t>
+  </si>
+  <si>
     <t xml:space="preserve">WE 742792641</t>
   </si>
   <si>
-    <t xml:space="preserve">710-742792641</t>
-  </si>
-  <si>
     <t xml:space="preserve">PE-1206CCMC900STS</t>
   </si>
   <si>
@@ -234,12 +204,12 @@
     <t xml:space="preserve">3216</t>
   </si>
   <si>
+    <t xml:space="preserve">673-PE-1206CCMC900ST</t>
+  </si>
+  <si>
     <t xml:space="preserve">WE 744232090</t>
   </si>
   <si>
-    <t xml:space="preserve">673-PE-1206CCMC900ST</t>
-  </si>
-  <si>
     <t xml:space="preserve">82103C</t>
   </si>
   <si>
@@ -252,12 +222,12 @@
     <t xml:space="preserve">1210 (3225 Metric)</t>
   </si>
   <si>
+    <t xml:space="preserve">963-LBC3225T100KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBC3225T100KR</t>
   </si>
   <si>
-    <t xml:space="preserve">963-LBC3225T100KR</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRF3225TAC-101Y</t>
   </si>
   <si>
@@ -279,9 +249,6 @@
     <t xml:space="preserve">R100, R111, R112, R115, R116</t>
   </si>
   <si>
-    <t xml:space="preserve">C25804</t>
-  </si>
-  <si>
     <t xml:space="preserve">603-RT0603FRE1310KL</t>
   </si>
   <si>
@@ -291,9 +258,6 @@
     <t xml:space="preserve">R105, R107</t>
   </si>
   <si>
-    <t xml:space="preserve">C22975</t>
-  </si>
-  <si>
     <t xml:space="preserve">594-MCT06030C2001FP5</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t xml:space="preserve">R106, R108</t>
   </si>
   <si>
-    <t xml:space="preserve">C21190</t>
-  </si>
-  <si>
     <t xml:space="preserve">603-AT0603FRE071KL</t>
   </si>
   <si>
@@ -315,9 +276,6 @@
     <t xml:space="preserve">R109, R110, R113, R114</t>
   </si>
   <si>
-    <t xml:space="preserve">C17673</t>
-  </si>
-  <si>
     <t xml:space="preserve">603-RT0805FRE074K7L</t>
   </si>
   <si>
@@ -333,12 +291,12 @@
     <t xml:space="preserve">TQFP64-0.5mm</t>
   </si>
   <si>
+    <t xml:space="preserve">556-ATSAME51J18AAU</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATSAME51J19A-AU</t>
   </si>
   <si>
-    <t xml:space="preserve">556-ATSAME51J18AAU</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIC5317-3.3YD5</t>
   </si>
   <si>
@@ -363,12 +321,12 @@
     <t xml:space="preserve">4Pin SIP</t>
   </si>
   <si>
+    <t xml:space="preserve">495-TEA1-0505E</t>
+  </si>
+  <si>
     <t xml:space="preserve">MER1S0505SC</t>
   </si>
   <si>
-    <t xml:space="preserve">495-TEA1-0505E</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCAN1462VDRQ1</t>
   </si>
   <si>
@@ -381,12 +339,12 @@
     <t xml:space="preserve">SO8</t>
   </si>
   <si>
+    <t xml:space="preserve">595-TCAN1462VDRQ1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCAN1462DRQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">595-TCAN1462VDRQ1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI8621EC-B-IS</t>
   </si>
   <si>
@@ -396,10 +354,7 @@
     <t xml:space="preserve">U104, U106</t>
   </si>
   <si>
-    <t xml:space="preserve">(C461877)-outofstock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634-SI8621EC-B-IS</t>
+    <t xml:space="preserve">634-SI8621EC-B-ISR</t>
   </si>
   <si>
     <t xml:space="preserve">USB1030-GF-P-B-B</t>
@@ -414,12 +369,12 @@
     <t xml:space="preserve">USB-B</t>
   </si>
   <si>
+    <t xml:space="preserve">640-USB1030-GF-P-B-B</t>
+  </si>
+  <si>
     <t xml:space="preserve">61729-0010BLF</t>
   </si>
   <si>
-    <t xml:space="preserve">640-USB1030-GF-P-B-B</t>
-  </si>
-  <si>
     <t xml:space="preserve">D09P13A4PV00LF</t>
   </si>
   <si>
@@ -432,12 +387,12 @@
     <t xml:space="preserve">D-Sub</t>
   </si>
   <si>
+    <t xml:space="preserve">649-D09P13A4PV00LF</t>
+  </si>
+  <si>
     <t xml:space="preserve">D09P13B6GV00LF</t>
   </si>
   <si>
-    <t xml:space="preserve">649-D09P13A4PV00LF</t>
-  </si>
-  <si>
     <t xml:space="preserve">SWD</t>
   </si>
   <si>
@@ -450,12 +405,12 @@
     <t xml:space="preserve">2x5 1,27mm</t>
   </si>
   <si>
+    <t xml:space="preserve">649-221121-00010T4LF</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD125-10-A-0305-0580-L-B</t>
   </si>
   <si>
-    <t xml:space="preserve">651-1156861</t>
-  </si>
-  <si>
     <t xml:space="preserve">LFB063CTP</t>
   </si>
   <si>
@@ -490,6 +445,15 @@
   </si>
   <si>
     <t xml:space="preserve">82 mm x 45 mm x 12 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prices:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worst case, single unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked: 2025-02-20</t>
   </si>
 </sst>
 </file>
@@ -499,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -520,12 +484,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -548,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -574,6 +532,20 @@
       <left/>
       <right style="thin"/>
       <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -603,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,20 +604,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -656,16 +616,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -761,24 +729,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.74609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="63.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="23.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="9.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1021" style="2" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="23.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1019" style="2" width="11.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,13 +762,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -809,916 +777,844 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <f aca="false">G2*I2</f>
-        <v>0.093</v>
-      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <f aca="false">E2*G2</f>
+        <v>0.095</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <f aca="false">G3*I3</f>
-        <v>0.336</v>
-      </c>
+      <c r="G3" s="8" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">E3*G3</f>
+        <v>0.276</v>
+      </c>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E4" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <f aca="false">G4*I4</f>
-        <v>0.558</v>
-      </c>
+      <c r="G4" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">E4*G4</f>
+        <v>0.57</v>
+      </c>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <f aca="false">G5*I5</f>
-        <v>0.186</v>
-      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <f aca="false">E5*G5</f>
+        <v>0.19</v>
+      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <f aca="false">E6*G6</f>
+        <v>0.342</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <f aca="false">G6*I6</f>
-        <v>0.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <f aca="false">G7*I7</f>
-        <v>0.744</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <f aca="false">E7*G7</f>
+        <v>0.608</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <f aca="false">G8*I8</f>
-        <v>1.479</v>
-      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <f aca="false">E8*G8</f>
+        <v>1.569</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <f aca="false">G9*I9</f>
-        <v>0.614</v>
-      </c>
+      <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">E9*G9</f>
+        <v>0.476</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <f aca="false">G10*I10</f>
-        <v>1.53</v>
-      </c>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">E10*G10</f>
+        <v>0.846</v>
+      </c>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <f aca="false">G11*I11</f>
-        <v>0.14</v>
+        <v>53</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">E11*G11</f>
+        <v>0.143</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <f aca="false">G12*I12</f>
-        <v>0.62</v>
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <f aca="false">E12*G12</f>
+        <v>0.732</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <f aca="false">G13*I13</f>
-        <v>0.298</v>
+        <v>65</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <f aca="false">E13*G13</f>
+        <v>0.304</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <f aca="false">G14*I14</f>
-        <v>1.42</v>
-      </c>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <f aca="false">E14*G14</f>
+        <v>1.368</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <f aca="false">G15*I15</f>
-        <v>0.465</v>
-      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <f aca="false">E15*G15</f>
+        <v>0.475</v>
+      </c>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <f aca="false">G16*I16</f>
-        <v>0.186</v>
-      </c>
+      <c r="F16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <f aca="false">E16*G16</f>
+        <v>0.19</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="8" t="n">
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>0.093</v>
       </c>
-      <c r="J17" s="8" t="n">
-        <f aca="false">G17*I17</f>
+      <c r="H17" s="8" t="n">
+        <f aca="false">E17*G17</f>
         <v>0.186</v>
       </c>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <f aca="false">G18*I18</f>
-        <v>0.372</v>
-      </c>
+      <c r="F18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <f aca="false">E18*G18</f>
+        <v>0.38</v>
+      </c>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="8" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J19" s="8" t="n">
-        <f aca="false">G19*I19</f>
-        <v>5.15</v>
+      <c r="F19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">E19*G19</f>
+        <v>5.18</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="8" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <f aca="false">G20*I20</f>
-        <v>0.233</v>
-      </c>
+      <c r="F20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <f aca="false">E20*G20</f>
+        <v>0.238</v>
+      </c>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <f aca="false">G21*I21</f>
-        <v>1.86</v>
+        <v>98</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <f aca="false">E21*G21</f>
+        <v>2.01</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J22" s="8" t="n">
-        <f aca="false">G22*I22</f>
-        <v>2.78</v>
+        <v>104</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <f aca="false">E22*G22</f>
+        <v>2.52</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="E23" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="8" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J23" s="8" t="n">
-        <f aca="false">G23*I23</f>
-        <v>5.38</v>
-      </c>
+      <c r="F23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <f aca="false">E23*G23</f>
+        <v>5.5</v>
+      </c>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <f aca="false">G24*I24</f>
-        <v>0.61</v>
+        <v>114</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <f aca="false">E24*G24</f>
+        <v>0.532</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>58</v>
+        <v>119</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="9" t="n">
+        <v>120</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <f aca="false">E25*G25</f>
+        <v>1.34</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <f aca="false">G25*I25</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="8" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J26" s="8" t="n">
-        <f aca="false">G26*I26</f>
-        <v>0.66</v>
+        <v>126</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <f aca="false">E26*G26</f>
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="8" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <f aca="false">G28*I28</f>
-        <v>1.376</v>
-      </c>
+      <c r="F28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <f aca="false">E28*G28</f>
+        <v>1.216</v>
+      </c>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="8" t="n">
-        <f aca="false">SUM(J2:J31)</f>
-        <v>28.926</v>
+      <c r="H32" s="8" t="n">
+        <f aca="false">SUM(H2:H31)</f>
+        <v>28.036</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
